--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value989.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value989.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.565612486472132</v>
+        <v>0.4597200751304626</v>
       </c>
       <c r="B1">
-        <v>4.274070942993911</v>
+        <v>0.4164294004440308</v>
       </c>
       <c r="C1">
-        <v>4.376710294767629</v>
+        <v>3.45040225982666</v>
       </c>
       <c r="D1">
-        <v>1.275686410794269</v>
+        <v>1.626733660697937</v>
       </c>
       <c r="E1">
-        <v>0.7760878986821595</v>
+        <v>1.145544528961182</v>
       </c>
     </row>
   </sheetData>
